--- a/rest/NakupniSeznamVzor.xlsx
+++ b/rest/NakupniSeznamVzor.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -31,31 +31,25 @@
     <t>Předpokládaná_cena</t>
   </si>
   <si>
-    <t>items1</t>
-  </si>
-  <si>
-    <t>kak</t>
-  </si>
-  <si>
-    <t>items2</t>
-  </si>
-  <si>
-    <t>kakbar</t>
-  </si>
-  <si>
-    <t>zde</t>
-  </si>
-  <si>
-    <t>items3</t>
-  </si>
-  <si>
-    <t>items17</t>
-  </si>
-  <si>
-    <t>rest</t>
+    <t>chleba</t>
   </si>
   <si>
     <t>kaufland</t>
+  </si>
+  <si>
+    <t>rajče</t>
+  </si>
+  <si>
+    <t>máslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohlíky </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vepřové maso na guláš </t>
+  </si>
+  <si>
+    <t>Kaufland</t>
   </si>
 </sst>
 </file>
@@ -357,186 +351,142 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>44958.96173490741</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>44959.37188791667</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>44958.96255038194</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>44959.37204503472</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
         <v>1000.0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>44958.963079699075</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>44959.372151539355</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
         <v>1000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>44958.9647321875</v>
-      </c>
-      <c r="B5" s="4">
+        <v>44959.37240482639</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>44958.97847288194</v>
-      </c>
-      <c r="B6" s="4">
+        <v>44959.37796864583</v>
+      </c>
+      <c r="B6" s="3">
         <v>5.0</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>190.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
-        <v>44958.97865765046</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6.0</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
-        <v>44958.97873565972</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7.0</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2">
-        <v>44958.9792103125</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8.0</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2">
-        <v>44958.9792474537</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9.0</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2">
-        <v>44958.979301851854</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10.0</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2">
-        <v>44958.979319872684</v>
-      </c>
-      <c r="B12" s="4">
-        <v>11.0</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>44958.97932370371</v>
-      </c>
-      <c r="B13" s="4">
-        <v>12.0</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2">
-        <v>44959.36497079861</v>
-      </c>
-      <c r="B14" s="4">
-        <v>13.0</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2">
-        <v>44959.36499836805</v>
-      </c>
-      <c r="B15" s="4">
-        <v>14.0</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
-        <v>44959.36566957176</v>
-      </c>
-      <c r="B16" s="4">
-        <v>15.0</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2">
-        <v>44959.36664910879</v>
-      </c>
-      <c r="B17" s="4">
-        <v>16.0</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2">
-        <v>44959.367444097225</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2">
-        <v>44959.36946230324</v>
-      </c>
-      <c r="B19" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1000.0</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
